--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1633.1264035</v>
+        <v>1582.3412475</v>
       </c>
       <c r="H2">
-        <v>3266.252807</v>
+        <v>3164.682495</v>
       </c>
       <c r="I2">
-        <v>0.1550952196490296</v>
+        <v>0.1601759178580617</v>
       </c>
       <c r="J2">
-        <v>0.1100224943588017</v>
+        <v>0.1140677455769003</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4450525</v>
+        <v>0.112603</v>
       </c>
       <c r="N2">
-        <v>0.890105</v>
+        <v>0.225206</v>
       </c>
       <c r="O2">
-        <v>0.4632734300656747</v>
+        <v>0.2927942295591215</v>
       </c>
       <c r="P2">
-        <v>0.365252948864464</v>
+        <v>0.2163073326424234</v>
       </c>
       <c r="Q2">
-        <v>726.8269886936838</v>
+        <v>178.1763714922425</v>
       </c>
       <c r="R2">
-        <v>2907.307954774735</v>
+        <v>712.7054859689699</v>
       </c>
       <c r="S2">
-        <v>0.07185149439359519</v>
+        <v>0.0468985844631763</v>
       </c>
       <c r="T2">
-        <v>0.04018604050597617</v>
+        <v>0.0246736897862739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1633.1264035</v>
+        <v>1582.3412475</v>
       </c>
       <c r="H3">
-        <v>3266.252807</v>
+        <v>3164.682495</v>
       </c>
       <c r="I3">
-        <v>0.1550952196490296</v>
+        <v>0.1601759178580617</v>
       </c>
       <c r="J3">
-        <v>0.1100224943588017</v>
+        <v>0.1140677455769003</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1025166666666667</v>
+        <v>0.1202966666666667</v>
       </c>
       <c r="N3">
-        <v>0.30755</v>
+        <v>0.36089</v>
       </c>
       <c r="O3">
-        <v>0.1067138097315847</v>
+        <v>0.3127995687077353</v>
       </c>
       <c r="P3">
-        <v>0.126202576576096</v>
+        <v>0.3466299888871707</v>
       </c>
       <c r="Q3">
-        <v>167.4226751321417</v>
+        <v>190.350377603425</v>
       </c>
       <c r="R3">
-        <v>1004.53605079285</v>
+        <v>1142.10226562055</v>
       </c>
       <c r="S3">
-        <v>0.01655080175990488</v>
+        <v>0.05010295802336735</v>
       </c>
       <c r="T3">
-        <v>0.01388512226940976</v>
+        <v>0.03953930138170558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,108 +667,108 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1633.1264035</v>
+        <v>1582.3412475</v>
       </c>
       <c r="H4">
-        <v>3266.252807</v>
+        <v>3164.682495</v>
       </c>
       <c r="I4">
-        <v>0.1550952196490296</v>
+        <v>0.1601759178580617</v>
       </c>
       <c r="J4">
-        <v>0.1100224943588017</v>
+        <v>0.1140677455769003</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1584306666666667</v>
+        <v>0.151681</v>
       </c>
       <c r="N4">
-        <v>0.475292</v>
+        <v>0.455043</v>
       </c>
       <c r="O4">
-        <v>0.1649169892861139</v>
+        <v>0.3944062017331431</v>
       </c>
       <c r="P4">
-        <v>0.1950351976134151</v>
+        <v>0.437062678470406</v>
       </c>
       <c r="Q4">
-        <v>258.7373048574407</v>
+        <v>240.0111027620475</v>
       </c>
       <c r="R4">
-        <v>1552.423829144644</v>
+        <v>1440.066616572285</v>
       </c>
       <c r="S4">
-        <v>0.0255778366771865</v>
+        <v>0.06317437537151804</v>
       </c>
       <c r="T4">
-        <v>0.02145825892918973</v>
+        <v>0.04985475440892087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1633.1264035</v>
+        <v>342.9308216666666</v>
       </c>
       <c r="H5">
-        <v>3266.252807</v>
+        <v>1028.792465</v>
       </c>
       <c r="I5">
-        <v>0.1550952196490296</v>
+        <v>0.03471391471913052</v>
       </c>
       <c r="J5">
-        <v>0.1100224943588017</v>
+        <v>0.03708177276376414</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.2546693333333334</v>
+        <v>0.112603</v>
       </c>
       <c r="N5">
-        <v>0.764008</v>
+        <v>0.225206</v>
       </c>
       <c r="O5">
-        <v>0.2650957709166267</v>
+        <v>0.2927942295591215</v>
       </c>
       <c r="P5">
-        <v>0.3135092769460248</v>
+        <v>0.2163073326424234</v>
       </c>
       <c r="Q5">
-        <v>415.9072124284094</v>
+        <v>38.61503931213166</v>
       </c>
       <c r="R5">
-        <v>2495.443274570456</v>
+        <v>231.69023587279</v>
       </c>
       <c r="S5">
-        <v>0.04111508681834306</v>
+        <v>0.01016403391516887</v>
       </c>
       <c r="T5">
-        <v>0.03449307265422601</v>
+        <v>0.008021059356182286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>1028.792465</v>
       </c>
       <c r="I6">
-        <v>0.0325675532505184</v>
+        <v>0.03471391471913052</v>
       </c>
       <c r="J6">
-        <v>0.03465448630744649</v>
+        <v>0.03708177276376414</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4450525</v>
+        <v>0.1202966666666667</v>
       </c>
       <c r="N6">
-        <v>0.890105</v>
+        <v>0.36089</v>
       </c>
       <c r="O6">
-        <v>0.4632734300656747</v>
+        <v>0.3127995687077353</v>
       </c>
       <c r="P6">
-        <v>0.365252948864464</v>
+        <v>0.3466299888871707</v>
       </c>
       <c r="Q6">
-        <v>152.6222195098042</v>
+        <v>41.2534347437611</v>
       </c>
       <c r="R6">
-        <v>915.733317058825</v>
+        <v>371.28091269385</v>
       </c>
       <c r="S6">
-        <v>0.01508768210321417</v>
+        <v>0.01085849755230113</v>
       </c>
       <c r="T6">
-        <v>0.01265765331517802</v>
+        <v>0.01285365448102016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>1028.792465</v>
       </c>
       <c r="I7">
-        <v>0.0325675532505184</v>
+        <v>0.03471391471913052</v>
       </c>
       <c r="J7">
-        <v>0.03465448630744649</v>
+        <v>0.03708177276376414</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1025166666666667</v>
+        <v>0.151681</v>
       </c>
       <c r="N7">
-        <v>0.30755</v>
+        <v>0.455043</v>
       </c>
       <c r="O7">
-        <v>0.1067138097315847</v>
+        <v>0.3944062017331431</v>
       </c>
       <c r="P7">
-        <v>0.126202576576096</v>
+        <v>0.437062678470406</v>
       </c>
       <c r="Q7">
-        <v>35.15612473452777</v>
+        <v>52.01608996122166</v>
       </c>
       <c r="R7">
-        <v>316.40512261075</v>
+        <v>468.1448096509949</v>
       </c>
       <c r="S7">
-        <v>0.003475407680999072</v>
+        <v>0.01369138325166052</v>
       </c>
       <c r="T7">
-        <v>0.004373485461920785</v>
+        <v>0.01620705892656171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>342.9308216666666</v>
+        <v>2954.454996666667</v>
       </c>
       <c r="H8">
-        <v>1028.792465</v>
+        <v>8863.36499</v>
       </c>
       <c r="I8">
-        <v>0.0325675532505184</v>
+        <v>0.2990711021463276</v>
       </c>
       <c r="J8">
-        <v>0.03465448630744649</v>
+        <v>0.319470930885446</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.1584306666666667</v>
+        <v>0.112603</v>
       </c>
       <c r="N8">
-        <v>0.475292</v>
+        <v>0.225206</v>
       </c>
       <c r="O8">
-        <v>0.1649169892861139</v>
+        <v>0.2927942295591215</v>
       </c>
       <c r="P8">
-        <v>0.1950351976134151</v>
+        <v>0.2163073326424234</v>
       </c>
       <c r="Q8">
-        <v>54.33075869719777</v>
+        <v>332.6804959896567</v>
       </c>
       <c r="R8">
-        <v>488.97682827478</v>
+        <v>1996.08297593794</v>
       </c>
       <c r="S8">
-        <v>0.005370942830490688</v>
+        <v>0.08756629293633131</v>
       </c>
       <c r="T8">
-        <v>0.006758844585164214</v>
+        <v>0.06910390491662281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>342.9308216666666</v>
+        <v>2954.454996666667</v>
       </c>
       <c r="H9">
-        <v>1028.792465</v>
+        <v>8863.36499</v>
       </c>
       <c r="I9">
-        <v>0.0325675532505184</v>
+        <v>0.2990711021463276</v>
       </c>
       <c r="J9">
-        <v>0.03465448630744649</v>
+        <v>0.319470930885446</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2546693333333334</v>
+        <v>0.1202966666666667</v>
       </c>
       <c r="N9">
-        <v>0.764008</v>
+        <v>0.36089</v>
       </c>
       <c r="O9">
-        <v>0.2650957709166267</v>
+        <v>0.3127995687077353</v>
       </c>
       <c r="P9">
-        <v>0.3135092769460248</v>
+        <v>0.3466299888871707</v>
       </c>
       <c r="Q9">
-        <v>87.33396373330223</v>
+        <v>355.4110879156778</v>
       </c>
       <c r="R9">
-        <v>786.00567359972</v>
+        <v>3198.6997912411</v>
       </c>
       <c r="S9">
-        <v>0.008633520635814469</v>
+        <v>0.09354931176431833</v>
       </c>
       <c r="T9">
-        <v>0.01086450294518347</v>
+        <v>0.1107382052225962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2578.145386</v>
+        <v>2954.454996666667</v>
       </c>
       <c r="H10">
-        <v>7734.436158</v>
+        <v>8863.36499</v>
       </c>
       <c r="I10">
-        <v>0.2448420551353863</v>
+        <v>0.2990711021463276</v>
       </c>
       <c r="J10">
-        <v>0.2605315659395211</v>
+        <v>0.319470930885446</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4450525</v>
+        <v>0.151681</v>
       </c>
       <c r="N10">
-        <v>0.890105</v>
+        <v>0.455043</v>
       </c>
       <c r="O10">
-        <v>0.4632734300656747</v>
+        <v>0.3944062017331431</v>
       </c>
       <c r="P10">
-        <v>0.365252948864464</v>
+        <v>0.437062678470406</v>
       </c>
       <c r="Q10">
-        <v>1147.410049402765</v>
+        <v>448.1346883493966</v>
       </c>
       <c r="R10">
-        <v>6884.46029641659</v>
+        <v>4033.21219514457</v>
       </c>
       <c r="S10">
-        <v>0.1134288187068995</v>
+        <v>0.1179554974456779</v>
       </c>
       <c r="T10">
-        <v>0.09515992273168665</v>
+        <v>0.139628820746227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,87 +1092,87 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2578.145386</v>
+        <v>310.086716</v>
       </c>
       <c r="H11">
-        <v>7734.436158</v>
+        <v>620.173432</v>
       </c>
       <c r="I11">
-        <v>0.2448420551353863</v>
+        <v>0.03138919902983323</v>
       </c>
       <c r="J11">
-        <v>0.2605315659395211</v>
+        <v>0.02235351741184043</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.1025166666666667</v>
+        <v>0.112603</v>
       </c>
       <c r="N11">
-        <v>0.30755</v>
+        <v>0.225206</v>
       </c>
       <c r="O11">
-        <v>0.1067138097315847</v>
+        <v>0.2927942295591215</v>
       </c>
       <c r="P11">
-        <v>0.126202576576096</v>
+        <v>0.2163073326424234</v>
       </c>
       <c r="Q11">
-        <v>264.3028711547666</v>
+        <v>34.916694481748</v>
       </c>
       <c r="R11">
-        <v>2378.7258403929</v>
+        <v>139.666777926992</v>
       </c>
       <c r="S11">
-        <v>0.02612802848600777</v>
+        <v>0.009190576346417945</v>
       </c>
       <c r="T11">
-        <v>0.03287975490097262</v>
+        <v>0.00483522972653117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2578.145386</v>
+        <v>310.086716</v>
       </c>
       <c r="H12">
-        <v>7734.436158</v>
+        <v>620.173432</v>
       </c>
       <c r="I12">
-        <v>0.2448420551353863</v>
+        <v>0.03138919902983323</v>
       </c>
       <c r="J12">
-        <v>0.2605315659395211</v>
+        <v>0.02235351741184043</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,33 +1181,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1584306666666667</v>
+        <v>0.1202966666666667</v>
       </c>
       <c r="N12">
-        <v>0.475292</v>
+        <v>0.36089</v>
       </c>
       <c r="O12">
-        <v>0.1649169892861139</v>
+        <v>0.3127995687077353</v>
       </c>
       <c r="P12">
-        <v>0.1950351976134151</v>
+        <v>0.3466299888871707</v>
       </c>
       <c r="Q12">
-        <v>408.4572922675706</v>
+        <v>37.30239831241334</v>
       </c>
       <c r="R12">
-        <v>3676.115630408136</v>
+        <v>223.81438987448</v>
       </c>
       <c r="S12">
-        <v>0.04037861458355262</v>
+        <v>0.009818527918613099</v>
       </c>
       <c r="T12">
-        <v>0.05081282544754699</v>
+        <v>0.007748399492055425</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2578.145386</v>
+        <v>310.086716</v>
       </c>
       <c r="H13">
-        <v>7734.436158</v>
+        <v>620.173432</v>
       </c>
       <c r="I13">
-        <v>0.2448420551353863</v>
+        <v>0.03138919902983323</v>
       </c>
       <c r="J13">
-        <v>0.2605315659395211</v>
+        <v>0.02235351741184043</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2546693333333334</v>
+        <v>0.151681</v>
       </c>
       <c r="N13">
-        <v>0.764008</v>
+        <v>0.455043</v>
       </c>
       <c r="O13">
-        <v>0.2650957709166267</v>
+        <v>0.3944062017331431</v>
       </c>
       <c r="P13">
-        <v>0.3135092769460248</v>
+        <v>0.437062678470406</v>
       </c>
       <c r="Q13">
-        <v>656.5745666890293</v>
+        <v>47.034263169596</v>
       </c>
       <c r="R13">
-        <v>5909.171100201263</v>
+        <v>282.205579017576</v>
       </c>
       <c r="S13">
-        <v>0.06490659335892646</v>
+        <v>0.01238009476480218</v>
       </c>
       <c r="T13">
-        <v>0.08167906285931487</v>
+        <v>0.009769888193253836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>269.2291719999999</v>
+        <v>2210.335856333334</v>
       </c>
       <c r="H14">
-        <v>538.4583439999999</v>
+        <v>6631.007569</v>
       </c>
       <c r="I14">
-        <v>0.02556823371282072</v>
+        <v>0.223746031472125</v>
       </c>
       <c r="J14">
-        <v>0.01813776630768608</v>
+        <v>0.2390078895731979</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.4450525</v>
+        <v>0.112603</v>
       </c>
       <c r="N14">
-        <v>0.890105</v>
+        <v>0.225206</v>
       </c>
       <c r="O14">
-        <v>0.4632734300656747</v>
+        <v>0.2927942295591215</v>
       </c>
       <c r="P14">
-        <v>0.365252948864464</v>
+        <v>0.2163073326424234</v>
       </c>
       <c r="Q14">
-        <v>119.82111607153</v>
+        <v>248.8904484307023</v>
       </c>
       <c r="R14">
-        <v>479.2844642861199</v>
+        <v>1493.342690584214</v>
       </c>
       <c r="S14">
-        <v>0.01184508333285928</v>
+        <v>0.06551154690179178</v>
       </c>
       <c r="T14">
-        <v>0.006624872629696861</v>
+        <v>0.05169915907407332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>269.2291719999999</v>
+        <v>2210.335856333334</v>
       </c>
       <c r="H15">
-        <v>538.4583439999999</v>
+        <v>6631.007569</v>
       </c>
       <c r="I15">
-        <v>0.02556823371282072</v>
+        <v>0.223746031472125</v>
       </c>
       <c r="J15">
-        <v>0.01813776630768608</v>
+        <v>0.2390078895731979</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,33 +1367,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1025166666666667</v>
+        <v>0.1202966666666667</v>
       </c>
       <c r="N15">
-        <v>0.30755</v>
+        <v>0.36089</v>
       </c>
       <c r="O15">
-        <v>0.1067138097315847</v>
+        <v>0.3127995687077353</v>
       </c>
       <c r="P15">
-        <v>0.126202576576096</v>
+        <v>0.3466299888871707</v>
       </c>
       <c r="Q15">
-        <v>27.60047728286666</v>
+        <v>265.8960357307122</v>
       </c>
       <c r="R15">
-        <v>165.6028636972</v>
+        <v>2393.06432157641</v>
       </c>
       <c r="S15">
-        <v>0.002728483627602639</v>
+        <v>0.06998766214454807</v>
       </c>
       <c r="T15">
-        <v>0.002289032841365086</v>
+        <v>0.08284730210670371</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>269.2291719999999</v>
+        <v>2210.335856333334</v>
       </c>
       <c r="H16">
-        <v>538.4583439999999</v>
+        <v>6631.007569</v>
       </c>
       <c r="I16">
-        <v>0.02556823371282072</v>
+        <v>0.223746031472125</v>
       </c>
       <c r="J16">
-        <v>0.01813776630768608</v>
+        <v>0.2390078895731979</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1584306666666667</v>
+        <v>0.151681</v>
       </c>
       <c r="N16">
-        <v>0.475292</v>
+        <v>0.455043</v>
       </c>
       <c r="O16">
-        <v>0.1649169892861139</v>
+        <v>0.3944062017331431</v>
       </c>
       <c r="P16">
-        <v>0.1950351976134151</v>
+        <v>0.437062678470406</v>
       </c>
       <c r="Q16">
-        <v>42.65415720607466</v>
+        <v>335.2659530244964</v>
       </c>
       <c r="R16">
-        <v>255.9249432364479</v>
+        <v>3017.393577220467</v>
       </c>
       <c r="S16">
-        <v>0.004216636125282112</v>
+        <v>0.0882468224257851</v>
       </c>
       <c r="T16">
-        <v>0.003537502836085497</v>
+        <v>0.1044614283924209</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>269.2291719999999</v>
+        <v>2478.621582</v>
       </c>
       <c r="H17">
-        <v>538.4583439999999</v>
+        <v>7435.864746</v>
       </c>
       <c r="I17">
-        <v>0.02556823371282072</v>
+        <v>0.2509038347745219</v>
       </c>
       <c r="J17">
-        <v>0.01813776630768608</v>
+        <v>0.2680181437888513</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.2546693333333334</v>
+        <v>0.112603</v>
       </c>
       <c r="N17">
-        <v>0.764008</v>
+        <v>0.225206</v>
       </c>
       <c r="O17">
-        <v>0.2650957709166267</v>
+        <v>0.2927942295591215</v>
       </c>
       <c r="P17">
-        <v>0.3135092769460248</v>
+        <v>0.2163073326424234</v>
       </c>
       <c r="Q17">
-        <v>68.56441374712533</v>
+        <v>279.100225997946</v>
       </c>
       <c r="R17">
-        <v>411.3864824827519</v>
+        <v>1674.601355987676</v>
       </c>
       <c r="S17">
-        <v>0.006778030627076694</v>
+        <v>0.07346319499623527</v>
       </c>
       <c r="T17">
-        <v>0.005686358000538632</v>
+        <v>0.05797428978273992</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1239.565490666667</v>
+        <v>2478.621582</v>
       </c>
       <c r="H18">
-        <v>3718.696472</v>
+        <v>7435.864746</v>
       </c>
       <c r="I18">
-        <v>0.1177194132874748</v>
+        <v>0.2509038347745219</v>
       </c>
       <c r="J18">
-        <v>0.1252628886336891</v>
+        <v>0.2680181437888513</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.4450525</v>
+        <v>0.1202966666666667</v>
       </c>
       <c r="N18">
-        <v>0.890105</v>
+        <v>0.36089</v>
       </c>
       <c r="O18">
-        <v>0.4632734300656747</v>
+        <v>0.3127995687077353</v>
       </c>
       <c r="P18">
-        <v>0.365252948864464</v>
+        <v>0.3466299888871707</v>
       </c>
       <c r="Q18">
-        <v>551.6717205349266</v>
+        <v>298.16991424266</v>
       </c>
       <c r="R18">
-        <v>3310.03032320956</v>
+        <v>2683.52922818394</v>
       </c>
       <c r="S18">
-        <v>0.05453627637900721</v>
+        <v>0.07848261130458735</v>
       </c>
       <c r="T18">
-        <v>0.04575263945673591</v>
+        <v>0.09290312620308966</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1239.565490666667</v>
+        <v>2478.621582</v>
       </c>
       <c r="H19">
-        <v>3718.696472</v>
+        <v>7435.864746</v>
       </c>
       <c r="I19">
-        <v>0.1177194132874748</v>
+        <v>0.2509038347745219</v>
       </c>
       <c r="J19">
-        <v>0.1252628886336891</v>
+        <v>0.2680181437888513</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1025166666666667</v>
+        <v>0.151681</v>
       </c>
       <c r="N19">
-        <v>0.30755</v>
+        <v>0.455043</v>
       </c>
       <c r="O19">
-        <v>0.1067138097315847</v>
+        <v>0.3944062017331431</v>
       </c>
       <c r="P19">
-        <v>0.126202576576096</v>
+        <v>0.437062678470406</v>
       </c>
       <c r="Q19">
-        <v>127.0761222181778</v>
+        <v>375.959800179342</v>
       </c>
       <c r="R19">
-        <v>1143.6850999636</v>
+        <v>3383.638201614078</v>
       </c>
       <c r="S19">
-        <v>0.01256228707127336</v>
+        <v>0.09895802847369929</v>
       </c>
       <c r="T19">
-        <v>0.01580849929493614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1239.565490666667</v>
-      </c>
-      <c r="H20">
-        <v>3718.696472</v>
-      </c>
-      <c r="I20">
-        <v>0.1177194132874748</v>
-      </c>
-      <c r="J20">
-        <v>0.1252628886336891</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.1584306666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.475292</v>
-      </c>
-      <c r="O20">
-        <v>0.1649169892861139</v>
-      </c>
-      <c r="P20">
-        <v>0.1950351976134151</v>
-      </c>
-      <c r="Q20">
-        <v>196.3851870633138</v>
-      </c>
-      <c r="R20">
-        <v>1767.466683569824</v>
-      </c>
-      <c r="S20">
-        <v>0.0194139312198981</v>
-      </c>
-      <c r="T20">
-        <v>0.02443067223829877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1239.565490666667</v>
-      </c>
-      <c r="H21">
-        <v>3718.696472</v>
-      </c>
-      <c r="I21">
-        <v>0.1177194132874748</v>
-      </c>
-      <c r="J21">
-        <v>0.1252628886336891</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.2546693333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.764008</v>
-      </c>
-      <c r="O21">
-        <v>0.2650957709166267</v>
-      </c>
-      <c r="P21">
-        <v>0.3135092769460248</v>
-      </c>
-      <c r="Q21">
-        <v>315.6793171310862</v>
-      </c>
-      <c r="R21">
-        <v>2841.113854179776</v>
-      </c>
-      <c r="S21">
-        <v>0.03120691861729612</v>
-      </c>
-      <c r="T21">
-        <v>0.03927107764371832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>4466.833414666667</v>
-      </c>
-      <c r="H22">
-        <v>13400.500244</v>
-      </c>
-      <c r="I22">
-        <v>0.4242075249647702</v>
-      </c>
-      <c r="J22">
-        <v>0.4513907984528555</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.4450525</v>
-      </c>
-      <c r="N22">
-        <v>0.890105</v>
-      </c>
-      <c r="O22">
-        <v>0.4632734300656747</v>
-      </c>
-      <c r="P22">
-        <v>0.365252948864464</v>
-      </c>
-      <c r="Q22">
-        <v>1987.975378280937</v>
-      </c>
-      <c r="R22">
-        <v>11927.85226968562</v>
-      </c>
-      <c r="S22">
-        <v>0.1965240751500994</v>
-      </c>
-      <c r="T22">
-        <v>0.1648718202251904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>4466.833414666667</v>
-      </c>
-      <c r="H23">
-        <v>13400.500244</v>
-      </c>
-      <c r="I23">
-        <v>0.4242075249647702</v>
-      </c>
-      <c r="J23">
-        <v>0.4513907984528555</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.1025166666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.30755</v>
-      </c>
-      <c r="O23">
-        <v>0.1067138097315847</v>
-      </c>
-      <c r="P23">
-        <v>0.126202576576096</v>
-      </c>
-      <c r="Q23">
-        <v>457.9248722269111</v>
-      </c>
-      <c r="R23">
-        <v>4121.3238500422</v>
-      </c>
-      <c r="S23">
-        <v>0.04526880110579693</v>
-      </c>
-      <c r="T23">
-        <v>0.0569666818074916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>4466.833414666667</v>
-      </c>
-      <c r="H24">
-        <v>13400.500244</v>
-      </c>
-      <c r="I24">
-        <v>0.4242075249647702</v>
-      </c>
-      <c r="J24">
-        <v>0.4513907984528555</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.1584306666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.475292</v>
-      </c>
-      <c r="O24">
-        <v>0.1649169892861139</v>
-      </c>
-      <c r="P24">
-        <v>0.1950351976134151</v>
-      </c>
-      <c r="Q24">
-        <v>707.6833957745831</v>
-      </c>
-      <c r="R24">
-        <v>6369.150561971248</v>
-      </c>
-      <c r="S24">
-        <v>0.06995902784970391</v>
-      </c>
-      <c r="T24">
-        <v>0.08803709357712988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4466.833414666667</v>
-      </c>
-      <c r="H25">
-        <v>13400.500244</v>
-      </c>
-      <c r="I25">
-        <v>0.4242075249647702</v>
-      </c>
-      <c r="J25">
-        <v>0.4513907984528555</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.2546693333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.764008</v>
-      </c>
-      <c r="O25">
-        <v>0.2650957709166267</v>
-      </c>
-      <c r="P25">
-        <v>0.3135092769460248</v>
-      </c>
-      <c r="Q25">
-        <v>1137.565487824217</v>
-      </c>
-      <c r="R25">
-        <v>10238.08939041795</v>
-      </c>
-      <c r="S25">
-        <v>0.1124556208591699</v>
-      </c>
-      <c r="T25">
-        <v>0.1415152028430435</v>
+        <v>0.1171407278030218</v>
       </c>
     </row>
   </sheetData>
